--- a/CDR Test Documentation CHANGE LOG.xlsx
+++ b/CDR Test Documentation CHANGE LOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://govteams.sharepoint.com/sites/datastandardsbody/Shared Documents/Standards and Guidelines/Testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codeRepos\codeDataStandards\standards-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{9B3D86EA-31BB-4D21-B7B8-766CEFF32DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E963F3A-452E-408A-BFC9-9C219B075334}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{432D017D-E142-4B8A-8A0F-A5AFD8FC20C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1E61262-89E5-4C9F-B6BD-CA910CFEB013}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{E1E61262-89E5-4C9F-B6BD-CA910CFEB013}"/>
   </bookViews>
   <sheets>
     <sheet name="Change log" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="229">
   <si>
     <t>Change date</t>
   </si>
@@ -386,13 +386,538 @@
   </si>
   <si>
     <t xml:space="preserve">A.CFC.001 added  </t>
+  </si>
+  <si>
+    <t>T.EAR.001</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>T.EAR.033</t>
+  </si>
+  <si>
+    <t>T.EAR.109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added link to Postman examples </t>
+  </si>
+  <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
+    <t>A.EAR.001</t>
+  </si>
+  <si>
+    <t>A.EAR.002</t>
+  </si>
+  <si>
+    <t>A.EAR.003</t>
+  </si>
+  <si>
+    <t>A.EAR.004</t>
+  </si>
+  <si>
+    <t>A.EAR.005</t>
+  </si>
+  <si>
+    <t>A.EAR.006</t>
+  </si>
+  <si>
+    <t>A.EAR.007</t>
+  </si>
+  <si>
+    <t>A.EAR.008</t>
+  </si>
+  <si>
+    <t>A.EAR.009</t>
+  </si>
+  <si>
+    <t>A.EAR.010</t>
+  </si>
+  <si>
+    <t>A.EAR.011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given; When </t>
+  </si>
+  <si>
+    <t>Changed the {servicePointId} is included in the ADR to DH request 
+to 
+the {servicePointId} is included AND the {servicePointId} value is valid 
+Changed the {servicePointId} value is valid 
+to
+a response is returned</t>
+  </si>
+  <si>
+    <t>Changed the {servicePointId} is included in the ADR to DH request url
+to
+the {servicePointId} is included AND the requested service point is permanently unavailable. (No subsequent request for the service point will be successful.)
+Changed The requested service point is permanently unavailable. (No subsequent request for the service point will be successful.) 
+to 
+a response is returned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When </t>
+  </si>
+  <si>
+    <t>Changed the DH receives the request AND interprets the Body
+to 
+a response is returned</t>
+  </si>
+  <si>
+    <t>Deleted by the ADR
+Changed the DH receives the request 
+to 
+a response is returned</t>
+  </si>
+  <si>
+    <t>A.EAS.001</t>
+  </si>
+  <si>
+    <t>A.EAS.002</t>
+  </si>
+  <si>
+    <t>A.EAS.003</t>
+  </si>
+  <si>
+    <t>A.EAS.004</t>
+  </si>
+  <si>
+    <t>A.EAS.005</t>
+  </si>
+  <si>
+    <t>A.EAS.006</t>
+  </si>
+  <si>
+    <t>A.EAS.007</t>
+  </si>
+  <si>
+    <t>A.EAS.008</t>
+  </si>
+  <si>
+    <t>A.EAS.009</t>
+  </si>
+  <si>
+    <t>A.EAS.010</t>
+  </si>
+  <si>
+    <t>A.EAS.011</t>
+  </si>
+  <si>
+    <t>Changed the {servicePointId} is included in the DH to SDH request 
+to 
+the {servicePointId} is included AND the {servicePointId} value is valid 
+Changed the {servicePointId} value is valid 
+to
+a response is returned</t>
+  </si>
+  <si>
+    <t>Changed the {servicePointId} is included in the DH to SDH request 
+to
+the {servicePointId} is included AND the requested service point is permanently unavailable. (No subsequent request for the service point will be successful.)
+Changed The requested service point is permanently unavailable. (No subsequent request for the service point will be successful.) 
+to 
+a response is returned</t>
+  </si>
+  <si>
+    <t>Changed the {servicePointId} is included in the ADR to DH request url
+to
+the {servicePointId} is included AND the requested service point is temporarily unavailable. (Subsequent requests for the service point may be successful.)
+Changed The requested service point is temporarily unavailable. (Subsequent requests for the service point may be successful.) 
+to 
+a response is returned</t>
+  </si>
+  <si>
+    <t>Changed the {servicePointId} is included in the DH to SDH request 
+to
+the {servicePointId} is included AND the requested service point is temporarily unavailable. (Subsequent requests for the service point may be successful.)
+Changed The requested service point is temporarily unavailable.  (Subsequent requests for the service point may be successful.)
+to 
+a response is returned</t>
+  </si>
+  <si>
+    <t>Deleted by the ADR 
+Changed the DH receives the request
+to
+a response is returned</t>
+  </si>
+  <si>
+    <t>Deleted by the DH 
+Changed the SDH receives the request
+to
+a response is returned</t>
+  </si>
+  <si>
+    <t>Deleted in the DH to SDH request 
+Changed the {servicePointId} value is valid AND the request is formated correctly
+to
+a response is returned</t>
+  </si>
+  <si>
+    <t>Changed the SDH receives the request and interprets the Body
+to 
+a response is returned</t>
+  </si>
+  <si>
+    <t>Deleted in the ADR to DH request AND added AND the {servicePointId} value is valid 
+Changed the {servicePointId} value is valid 
+to
+a response is returned</t>
+  </si>
+  <si>
+    <t>Deleted in the ADR to DH request AND added AND the {servicePointId} value is valid AND the request is formated correctly
+Changed the {servicePointId} value is valid AND the request is formated correctly
+to
+a response is returned</t>
+  </si>
+  <si>
+    <t>Added AND the {servicePointId} value is valid 
+Changed the {servicePointId} value is valid 
+to 
+response is returned</t>
+  </si>
+  <si>
+    <t>When</t>
+  </si>
+  <si>
+    <t>Changed the SDH receives the request and interprets the Body
+to
+response is returned</t>
+  </si>
+  <si>
+    <t>A.CPG.001</t>
+  </si>
+  <si>
+    <t>A.CPG.002</t>
+  </si>
+  <si>
+    <t>A.CPG.003</t>
+  </si>
+  <si>
+    <t>A.CPG.004</t>
+  </si>
+  <si>
+    <t>A.CPG.005</t>
+  </si>
+  <si>
+    <t>A.CVN.001</t>
+  </si>
+  <si>
+    <t>A.CVN.002</t>
+  </si>
+  <si>
+    <t>A.CVN.003</t>
+  </si>
+  <si>
+    <t>A.CFI.001</t>
+  </si>
+  <si>
+    <t>A.CFI.003</t>
+  </si>
+  <si>
+    <t>A.CFA.001</t>
+  </si>
+  <si>
+    <t>A.CFA.002</t>
+  </si>
+  <si>
+    <t>A.CFA.003</t>
+  </si>
+  <si>
+    <t>A.CFA.004</t>
+  </si>
+  <si>
+    <t>A.CFC.001</t>
+  </si>
+  <si>
+    <t>A.CFC.002</t>
+  </si>
+  <si>
+    <t>A.CFC.003</t>
+  </si>
+  <si>
+    <t>A.CCH.001</t>
+  </si>
+  <si>
+    <t>A.CCH.002</t>
+  </si>
+  <si>
+    <t>A.CCH.003</t>
+  </si>
+  <si>
+    <t>A.CAI.001</t>
+  </si>
+  <si>
+    <t>A.CAI.002</t>
+  </si>
+  <si>
+    <t>A.CAI.003</t>
+  </si>
+  <si>
+    <t>A.COD.001</t>
+  </si>
+  <si>
+    <t>A.COD.002</t>
+  </si>
+  <si>
+    <t>A.CND.001</t>
+  </si>
+  <si>
+    <t>A.CND.002</t>
+  </si>
+  <si>
+    <t>A.CBD.001</t>
+  </si>
+  <si>
+    <t>Given; When; Then</t>
+  </si>
+  <si>
+    <t>Deleted in a GET Request AND Added AND the page value is a number and page-size is [1,25,1000,null]
+Changed to the page value is a number and page-size is [1,25,1000,null]
+to 
+a response is returned
+AND the response has a status of 200
+Deleted AND the response has a status of 200</t>
+  </si>
+  <si>
+    <t>Deleted in a GET Request AND Added the the value for &lt;page-size&gt; is outside the range [1..1000]
+OR the &lt;page-size&gt; is a not a positive integer
+Changed the value for &lt;page-size&gt; is outside the range [1..1000]
+OR the &lt;page-size&gt; is a not a positive integer
+to 
+a response is returned</t>
+  </si>
+  <si>
+    <t>Deleted in a GET request AND added AND the &lt;page&gt; is a not a positive integer
+Changed the &lt;page&gt; is a not a positive integer
+to 
+a response is returned</t>
+  </si>
+  <si>
+    <t>Deleted in a GET request AND added AND the &lt;page&gt; value is greater than the number of pages available 
+Changed the &lt;page&gt; value is greater than the number of pages available 
+to 
+a response is returned</t>
+  </si>
+  <si>
+    <t>Deleted in a GET request AND added AND the page size parameter value is not a positive integer (number)
+Changed the page size parameter value is not a positive integer (number)
+to 
+a response is returned</t>
+  </si>
+  <si>
+    <t>Deleted in a GET request AND added AND the value for the &lt;x-v&gt; is a positive integer
+Changed the value for the &lt;x-v&gt; is a positive integer
+to 
+a response is returned AND the response has a status of 200
+Deleted the response has a status of 200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given; When; Then </t>
+  </si>
+  <si>
+    <t>Deleted in a GET request AND added AND the version value is not a valid number is [-1,0,1001]
+Changed the version value is not a valid number is [-1,0,1001]
+to 
+a response is returned</t>
+  </si>
+  <si>
+    <t>Deleted in a GET request AND added AND the verison value is not a valid number is an alpha (e.g. "foo")
+Changed the verison value is not a valid number is an alpha (e.g. "foo")
+to 
+a response is returned</t>
+  </si>
+  <si>
+    <t>Added AND the request version &lt;x-v&gt; is not supported
+Changed the request version &lt;x-v&gt; is not supported
+to 
+a response is returned</t>
+  </si>
+  <si>
+    <t>Added AND no version between &lt;x-v&gt; and &lt;x-min-v&gt; is supported
+Changed no version between &lt;x-v&gt; and &lt;x-min-v&gt; is supported
+to  
+a response is returned</t>
+  </si>
+  <si>
+    <t>Deleted in a get request AND added the value for the &lt;x-min-v&gt;  is a positive integer
+Changed the value for the &lt;x-min-v&gt;  is a positive integer
+to
+a response is returned AND the response has a status of 200</t>
+  </si>
+  <si>
+    <t>Deleted in a get request AND Added AND the &lt;x-min-v&gt; is a not a positive integer
+Changed the &lt;x-min-v&gt; is a not a positive integer
+to 
+a response is returned</t>
+  </si>
+  <si>
+    <t>ASSERTIONS</t>
+  </si>
+  <si>
+    <t>Added AND the &lt;x-fapi-interaction-id&gt; is in a valid format 
+Changed the &lt;x-fapi-interaction-id&gt; is in a valid format 
+to 
+A response is returned
+Deleted AND</t>
+  </si>
+  <si>
+    <t>Deleted in the GET request AND Added AND the &lt;x-fapi-interaction-id&gt; is not in a valid format 
+Changed the &lt;x-fapi-interaction-id&gt; is not in a valid format 
+to 
+a response is returned</t>
+  </si>
+  <si>
+    <t>Changed the called API is a resource call and does require authentication
+to 
+the API requires authentication
+Changed the &lt;x-fapi-auth-date&gt; is present in the request header
+AND is in a valid format
+to 
+a response is returned 
+AND the response has a status of 200
+Changed the response has a status of 200 
+to
+&lt;x-fapi-auth-date&gt; is present in the request header
+AND is in a valid format</t>
+  </si>
+  <si>
+    <t>Changed the called API is a resource call and does require authentication
+to 
+the API requires authentication AND the &lt;x-fapi-auth-date&gt; is NOT present  in the request header
+Changed the &lt;x-fapi-auth-date&gt; is NOT present  in the request header
+to 
+a response is returned 
+Added AND the response body has ErrorListReponse object</t>
+  </si>
+  <si>
+    <t>Changed the called API is a resource call and does require authentication
+to 
+the API requires authentication AND the &lt;x-fapi-auth-date&gt; is in the request header AND is NOT in a valid format
+Changed the &lt;x-fapi-auth-date&gt; is  in the request header
+AND is NOT in a valid format
+to
+a response is returned</t>
+  </si>
+  <si>
+    <t>Added the API requires authentication AND
+Added AND the response has a status of 200</t>
+  </si>
+  <si>
+    <t>Deleted called
+Changed the &lt;x-fapi-customer-ip-address&gt; is present in the request header AND is in a valid IPv4 or IPv6 format
+to 
+a response is returned
+AND the response has a status of 200
+Changed the response has a status of 200
+to 
+the &lt;x-fapi-customer-ip-address&gt; is present in the request header
+AND is in a valid IPv4 or IPv6 format</t>
+  </si>
+  <si>
+    <t>Deleted called AND Added AND the &lt;x-fapi-customer-ip-address&gt; is NOT present in the request header
+Changed the &lt;x-fapi-customer-ip-address&gt; is NOT present in the request header
+to 
+a response is returned</t>
+  </si>
+  <si>
+    <t>Deleted called AND Added AND "the &lt;x-fapi-customer-ip-address&gt; is in present the request header
+AND is NEITHER in a valid IPv4 or IPv6 format"
+Changed AND the &lt;x-fapi-customer-ip-address&gt; in present the request header AND is NEITHER  in a valid IPv4 or IPv6 format
+to 
+a response is returned</t>
+  </si>
+  <si>
+    <t>Deleted called
+Changed the &lt;x-cds-client-headers&gt; is present in the request header AND is Base64 encoded
+to 
+a response is returned AND the response has a status of 200
+Changed the response has a status of 200 
+to 
+the &lt;x-cds-client-headers&gt; is present in the request header AND is Base64 encoded</t>
+  </si>
+  <si>
+    <t>Changed the called API requires authentication AND the call is an attended, ie customer present, call
+to 
+the API requires authentication AND the &lt;x-cds-client-headers&gt; is mandatory AND the &lt;x-cds-client-headers&gt; is NOT present in the request header
+Changed the &lt;x-cds-client-headers&gt; is NOT present in the request header
+to 
+a response is returned</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changed the called API requires authentication AND the call is an attended, ie customer present, call
+to 
+the &lt;x-cds-client-headers&gt;  present the request header AND is Not Base64 encoded
+Changed the &lt;x-cds-client-headers&gt;  present the request header
+AND is Not Base64 encoded 
+to 
+a response is returned </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When; Then </t>
+  </si>
+  <si>
+    <t>Changed the &lt;x-cds-arrangement&gt; is present in the request header AND is in a valid format
+to 
+a response is returned AND the response has a status of 200
+Changed the response has a status of 200
+to 
+the &lt;x-cds-arrangement&gt; is present in the request header AND is in a valid format</t>
+  </si>
+  <si>
+    <t>Added the &lt;x-cds-arrangement&gt; is NOT present in the request header
+Changed the &lt;x-cds-arrangement&gt; is NOT present in the request header
+to  
+a response is returned</t>
+  </si>
+  <si>
+    <t>Added AND the &lt;oldest-date&gt; is in a valid DateString format
+Changed the &lt;oldest-date&gt; is in a valid DateString format
+to  
+a response is returned AND the response has a status of 200
+Deleted AND the response has a status of 200</t>
+  </si>
+  <si>
+    <t>Added the &lt;x-cds-arrangement&gt; is present in the request header AND is NOT in a valid format
+Changed the &lt;x-cds-arrangement&gt; is present in the request header AND is NOT in a valid format
+to 
+a response is returned</t>
+  </si>
+  <si>
+    <t>Added AND the &lt;oldest-date&gt; is not in a DateString valid format
+Changed the &lt;oldest-date&gt; is not in a DateString valid format
+to 
+a response is returned</t>
+  </si>
+  <si>
+    <t>Added AND the &lt;newest-date&gt; is in a valid DateString format
+Changed the &lt;newest-date&gt; is in a valid DateString format
+to
+a response is returned AND the response has a status of 200
+Deleted the response has a status of 200 AND</t>
+  </si>
+  <si>
+    <t>Added AND the &lt;newest-date&gt; is not in a valid DateString format
+Changed the &lt;newest-date&gt; is not in a valid DateString format
+to 
+a response is returned</t>
+  </si>
+  <si>
+    <t>Added AND the request body is not in a valid JSON format, ie it is malformed
+Changed the request body is not in a valid JSON format, ie it is malformed 
+to 
+a response is returned</t>
+  </si>
+  <si>
+    <t>Corrected various spellings of Response plus typos on Interaction, Version, i.e., formatted and correctly corrected throughout.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -809,27 +1334,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4B9470-3BCE-4ABB-997A-921DA99601C0}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M49" sqref="M49"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C102" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="110.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="110.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -849,7 +1374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>44700</v>
       </c>
@@ -869,7 +1394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>44715</v>
       </c>
@@ -889,7 +1414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>44715</v>
       </c>
@@ -909,7 +1434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>44715</v>
       </c>
@@ -929,7 +1454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>44715</v>
       </c>
@@ -949,7 +1474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>44715</v>
       </c>
@@ -969,7 +1494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>44715</v>
       </c>
@@ -989,7 +1514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>44715</v>
       </c>
@@ -1009,7 +1534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>44715</v>
       </c>
@@ -1029,7 +1554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>44715</v>
       </c>
@@ -1049,7 +1574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>44715</v>
       </c>
@@ -1069,7 +1594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>44715</v>
       </c>
@@ -1089,7 +1614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>44715</v>
       </c>
@@ -1109,7 +1634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>44715</v>
       </c>
@@ -1129,7 +1654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>44715</v>
       </c>
@@ -1149,7 +1674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>44715</v>
       </c>
@@ -1169,7 +1694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>44715</v>
       </c>
@@ -1189,7 +1714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>44715</v>
       </c>
@@ -1209,7 +1734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>44715</v>
       </c>
@@ -1229,7 +1754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>44715</v>
       </c>
@@ -1249,7 +1774,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>44715</v>
       </c>
@@ -1269,7 +1794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>44715</v>
       </c>
@@ -1289,7 +1814,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>44715</v>
       </c>
@@ -1309,7 +1834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>44715</v>
       </c>
@@ -1329,7 +1854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>44715</v>
       </c>
@@ -1349,7 +1874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>44715</v>
       </c>
@@ -1369,7 +1894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>44715</v>
       </c>
@@ -1389,7 +1914,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>44715</v>
       </c>
@@ -1409,7 +1934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>44715</v>
       </c>
@@ -1429,7 +1954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>44715</v>
       </c>
@@ -1449,7 +1974,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>44715</v>
       </c>
@@ -1469,7 +1994,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>44715</v>
       </c>
@@ -1489,7 +2014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>44715</v>
       </c>
@@ -1509,7 +2034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>44715</v>
       </c>
@@ -1529,7 +2054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>44715</v>
       </c>
@@ -1549,7 +2074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>44715</v>
       </c>
@@ -1569,7 +2094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>44715</v>
       </c>
@@ -1589,7 +2114,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>44715</v>
       </c>
@@ -1609,7 +2134,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>44715</v>
       </c>
@@ -1629,7 +2154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>44715</v>
       </c>
@@ -1649,7 +2174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>44715</v>
       </c>
@@ -1669,7 +2194,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>44715</v>
       </c>
@@ -1689,7 +2214,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>44715</v>
       </c>
@@ -1709,7 +2234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>44715</v>
       </c>
@@ -1729,7 +2254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>44715</v>
       </c>
@@ -1749,7 +2274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>44715</v>
       </c>
@@ -1769,7 +2294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>44715</v>
       </c>
@@ -1789,7 +2314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>44715</v>
       </c>
@@ -1809,7 +2334,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>44715</v>
       </c>
@@ -1829,7 +2354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>44715</v>
       </c>
@@ -1849,7 +2374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>44715</v>
       </c>
@@ -1869,7 +2394,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>44715</v>
       </c>
@@ -1889,7 +2414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>44715</v>
       </c>
@@ -1909,7 +2434,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>44715</v>
       </c>
@@ -1929,7 +2454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>44715</v>
       </c>
@@ -1949,7 +2474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>44715</v>
       </c>
@@ -1969,7 +2494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>44715</v>
       </c>
@@ -1989,7 +2514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>44715</v>
       </c>
@@ -2009,7 +2534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>44715</v>
       </c>
@@ -2029,7 +2554,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>44715</v>
       </c>
@@ -2049,7 +2574,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="30">
+    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>44715</v>
       </c>
@@ -2069,7 +2594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>44719</v>
       </c>
@@ -2089,7 +2614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>44719</v>
       </c>
@@ -2109,7 +2634,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>44719</v>
       </c>
@@ -2129,7 +2654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>44719</v>
       </c>
@@ -2149,7 +2674,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>44719</v>
       </c>
@@ -2169,7 +2694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>44719</v>
       </c>
@@ -2187,6 +2712,1163 @@
       </c>
       <c r="F68" s="4">
         <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F69" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F70" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F71" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F72" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F73" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F74" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F77" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F78" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F79" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F80" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A82" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F82" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F83" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F84" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F85" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F86" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F87" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A88" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F88" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F89" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F90" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F91" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F92" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F93" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F94" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F95" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A96" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F96" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F97" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F98" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A99" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A100" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A104" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A111" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A119" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A121" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A122" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A123" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A126" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A128" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A129" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A130" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="8">
+        <v>44754</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2200,33 +3882,18 @@
     <hyperlink ref="F63" r:id="rId6" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/24" xr:uid="{61814D74-0D5A-4E7E-AF68-2BC4F861AC78}"/>
     <hyperlink ref="F64:F67" r:id="rId7" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/24" xr:uid="{41855F6C-EE4E-4685-B895-714E487E64AF}"/>
     <hyperlink ref="F68" r:id="rId8" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/25" xr:uid="{0850A534-0490-40E6-8522-76C33F4DA16B}"/>
+    <hyperlink ref="F69" r:id="rId9" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/21" xr:uid="{C7A6AED9-4CEA-4F83-B009-A0E8FAF1B59E}"/>
+    <hyperlink ref="F70:F74" r:id="rId10" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/21" xr:uid="{E44CD4A0-8F59-442A-AF9F-81DFA6B012B8}"/>
+    <hyperlink ref="F77" r:id="rId11" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/26" xr:uid="{2D468D44-CC33-4397-B10D-6A8CC1F5509F}"/>
+    <hyperlink ref="F78:F87" r:id="rId12" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/26" xr:uid="{99F47488-7EFB-4D78-842D-BA8B8258C4A8}"/>
+    <hyperlink ref="F88:F98" r:id="rId13" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/26" xr:uid="{9D2670DC-365B-4841-BD4F-11E66B03A343}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b2208f11-ae8c-46f3-b7de-f72e1c6d0934">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AC745917B956084FBC19C2B85F94DD54" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="865a07db5559135b02b49b365e0b81ea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2208f11-ae8c-46f3-b7de-f72e1c6d0934" xmlns:ns3="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e91ff7f3783b5129c9128fce1d9ba9c" ns2:_="" ns3:_="">
     <xsd:import namespace="b2208f11-ae8c-46f3-b7de-f72e1c6d0934"/>
@@ -2463,14 +4130,66 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b2208f11-ae8c-46f3-b7de-f72e1c6d0934">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86D3F574-1D4C-41FF-8CB3-6F4DD5AF995B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5F5A1BD-A9B3-477A-AFD5-C929335163D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b2208f11-ae8c-46f3-b7de-f72e1c6d0934"/>
+    <ds:schemaRef ds:uri="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F3D8B3A-6998-4DF6-A0B6-219B9EFDF5AB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F3D8B3A-6998-4DF6-A0B6-219B9EFDF5AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b2208f11-ae8c-46f3-b7de-f72e1c6d0934"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5F5A1BD-A9B3-477A-AFD5-C929335163D7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86D3F574-1D4C-41FF-8CB3-6F4DD5AF995B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CDR Test Documentation CHANGE LOG.xlsx
+++ b/CDR Test Documentation CHANGE LOG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codeRepos\codeDataStandards\standards-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{432D017D-E142-4B8A-8A0F-A5AFD8FC20C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A7A8B01-7D54-4AB3-86F8-727E4C179DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{E1E61262-89E5-4C9F-B6BD-CA910CFEB013}"/>
+    <workbookView xWindow="-30828" yWindow="2256" windowWidth="30936" windowHeight="16896" xr2:uid="{E1E61262-89E5-4C9F-B6BD-CA910CFEB013}"/>
   </bookViews>
   <sheets>
     <sheet name="Change log" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="229">
   <si>
     <t>Change date</t>
   </si>
@@ -910,7 +910,7 @@
 a response is returned</t>
   </si>
   <si>
-    <t>Corrected various spellings of Response plus typos on Interaction, Version, i.e., formatted and correctly corrected throughout.</t>
+    <t>Corrected various spellings of 'Response' and typos on 'Interaction', 'Version', 'i.e.', 'formatted' and 'correctly' throughout.</t>
   </si>
 </sst>
 </file>
@@ -1337,20 +1337,20 @@
   <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E132" sqref="E132"/>
+      <selection pane="bottomRight" activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" style="1"/>
-    <col min="3" max="3" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="110.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
@@ -1370,7 +1370,7 @@
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3326,6 +3326,9 @@
       <c r="E99" s="9" t="s">
         <v>193</v>
       </c>
+      <c r="F99" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="100" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
@@ -3343,6 +3346,9 @@
       <c r="E100" s="9" t="s">
         <v>194</v>
       </c>
+      <c r="F100" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="101" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
@@ -3360,6 +3366,9 @@
       <c r="E101" s="9" t="s">
         <v>195</v>
       </c>
+      <c r="F101" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="102" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
@@ -3377,6 +3386,9 @@
       <c r="E102" s="9" t="s">
         <v>196</v>
       </c>
+      <c r="F102" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="103" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
@@ -3394,6 +3406,9 @@
       <c r="E103" s="9" t="s">
         <v>197</v>
       </c>
+      <c r="F103" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="104" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
@@ -3411,6 +3426,9 @@
       <c r="E104" s="9" t="s">
         <v>198</v>
       </c>
+      <c r="F104" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="105" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
@@ -3428,6 +3446,9 @@
       <c r="E105" s="9" t="s">
         <v>200</v>
       </c>
+      <c r="F105" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="106" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
@@ -3445,6 +3466,9 @@
       <c r="E106" s="9" t="s">
         <v>201</v>
       </c>
+      <c r="F106" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="107" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
@@ -3462,6 +3486,9 @@
       <c r="E107" s="9" t="s">
         <v>202</v>
       </c>
+      <c r="F107" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="108" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
@@ -3479,6 +3506,9 @@
       <c r="E108" s="9" t="s">
         <v>203</v>
       </c>
+      <c r="F108" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="109" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
@@ -3496,6 +3526,9 @@
       <c r="E109" s="9" t="s">
         <v>204</v>
       </c>
+      <c r="F109" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="110" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
@@ -3513,6 +3546,9 @@
       <c r="E110" s="9" t="s">
         <v>205</v>
       </c>
+      <c r="F110" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="111" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
@@ -3530,6 +3566,9 @@
       <c r="E111" s="9" t="s">
         <v>207</v>
       </c>
+      <c r="F111" s="4">
+        <v>26</v>
+      </c>
     </row>
     <row r="112" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
@@ -3547,8 +3586,11 @@
       <c r="E112" s="9" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="F112" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <v>44754</v>
       </c>
@@ -3564,8 +3606,11 @@
       <c r="E113" s="9" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="F113" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <v>44754</v>
       </c>
@@ -3581,8 +3626,11 @@
       <c r="E114" s="9" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="F114" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <v>44754</v>
       </c>
@@ -3598,8 +3646,11 @@
       <c r="E115" s="9" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F115" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <v>44754</v>
       </c>
@@ -3615,8 +3666,11 @@
       <c r="E116" s="9" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="F116" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <v>44754</v>
       </c>
@@ -3632,8 +3686,11 @@
       <c r="E117" s="9" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F117" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <v>44754</v>
       </c>
@@ -3649,8 +3706,11 @@
       <c r="E118" s="9" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="F118" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>44754</v>
       </c>
@@ -3666,8 +3726,11 @@
       <c r="E119" s="9" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="F119" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
         <v>44754</v>
       </c>
@@ -3683,8 +3746,11 @@
       <c r="E120" s="9" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="F120" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>44754</v>
       </c>
@@ -3700,8 +3766,11 @@
       <c r="E121" s="9" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="F121" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <v>44754</v>
       </c>
@@ -3717,8 +3786,11 @@
       <c r="E122" s="9" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="F122" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
         <v>44754</v>
       </c>
@@ -3734,8 +3806,11 @@
       <c r="E123" s="9" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F123" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>44754</v>
       </c>
@@ -3751,8 +3826,11 @@
       <c r="E124" s="9" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F124" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <v>44754</v>
       </c>
@@ -3768,8 +3846,11 @@
       <c r="E125" s="9" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="F125" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <v>44754</v>
       </c>
@@ -3785,8 +3866,11 @@
       <c r="E126" s="9" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F126" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
         <v>44754</v>
       </c>
@@ -3802,8 +3886,11 @@
       <c r="E127" s="9" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="F127" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <v>44754</v>
       </c>
@@ -3819,8 +3906,11 @@
       <c r="E128" s="9" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F128" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
         <v>44754</v>
       </c>
@@ -3836,8 +3926,11 @@
       <c r="E129" s="9" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F129" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <v>44754</v>
       </c>
@@ -3853,8 +3946,11 @@
       <c r="E130" s="9" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
         <v>44754</v>
       </c>
@@ -3869,6 +3965,9 @@
       </c>
       <c r="E131" s="1" t="s">
         <v>228</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3887,13 +3986,34 @@
     <hyperlink ref="F77" r:id="rId11" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/26" xr:uid="{2D468D44-CC33-4397-B10D-6A8CC1F5509F}"/>
     <hyperlink ref="F78:F87" r:id="rId12" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/26" xr:uid="{99F47488-7EFB-4D78-842D-BA8B8258C4A8}"/>
     <hyperlink ref="F88:F98" r:id="rId13" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/26" xr:uid="{9D2670DC-365B-4841-BD4F-11E66B03A343}"/>
+    <hyperlink ref="F99:F130" r:id="rId14" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/26" xr:uid="{BCF8CED7-A426-4CD2-A78B-CED48AC0A46C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b2208f11-ae8c-46f3-b7de-f72e1c6d0934">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AC745917B956084FBC19C2B85F94DD54" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="865a07db5559135b02b49b365e0b81ea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2208f11-ae8c-46f3-b7de-f72e1c6d0934" xmlns:ns3="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e91ff7f3783b5129c9128fce1d9ba9c" ns2:_="" ns3:_="">
     <xsd:import namespace="b2208f11-ae8c-46f3-b7de-f72e1c6d0934"/>
@@ -4130,27 +4250,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b2208f11-ae8c-46f3-b7de-f72e1c6d0934">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86D3F574-1D4C-41FF-8CB3-6F4DD5AF995B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F3D8B3A-6998-4DF6-A0B6-219B9EFDF5AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b2208f11-ae8c-46f3-b7de-f72e1c6d0934"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5F5A1BD-A9B3-477A-AFD5-C929335163D7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4167,29 +4292,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F3D8B3A-6998-4DF6-A0B6-219B9EFDF5AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b2208f11-ae8c-46f3-b7de-f72e1c6d0934"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86D3F574-1D4C-41FF-8CB3-6F4DD5AF995B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CDR Test Documentation CHANGE LOG.xlsx
+++ b/CDR Test Documentation CHANGE LOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codeRepos\codeDataStandards\standards-testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://govteams.sharepoint.com/sites/datastandardsbody/Shared Documents/Standards and Guidelines/Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A7A8B01-7D54-4AB3-86F8-727E4C179DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="361" documentId="8_{9B3D86EA-31BB-4D21-B7B8-766CEFF32DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38FA94F8-7BC9-42A6-B10E-D978C61C3908}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="2256" windowWidth="30936" windowHeight="16896" xr2:uid="{E1E61262-89E5-4C9F-B6BD-CA910CFEB013}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1E61262-89E5-4C9F-B6BD-CA910CFEB013}"/>
   </bookViews>
   <sheets>
     <sheet name="Change log" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="240">
   <si>
     <t>Change date</t>
   </si>
@@ -912,12 +912,45 @@
   <si>
     <t>Corrected various spellings of 'Response' and typos on 'Interaction', 'Version', 'i.e.', 'formatted' and 'correctly' throughout.</t>
   </si>
+  <si>
+    <t>1.0.3</t>
+  </si>
+  <si>
+    <t>T.EAR.008</t>
+  </si>
+  <si>
+    <t>PreCondition</t>
+  </si>
+  <si>
+    <t>Added 'invalid' to incomplete sentence and removed &lt;&gt; from servicePointId</t>
+  </si>
+  <si>
+    <t>A.EAA.001-006</t>
+  </si>
+  <si>
+    <t>Added Suite.008 Test Cases</t>
+  </si>
+  <si>
+    <t>Added Suite.008 Assertions</t>
+  </si>
+  <si>
+    <t>S.EAA.047-054</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>Added Test Case references to Scenarios</t>
+  </si>
+  <si>
+    <t>T.EAA.001-056</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -962,6 +995,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -990,7 +1029,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1018,6 +1057,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1334,27 +1376,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4B9470-3BCE-4ABB-997A-921DA99601C0}">
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K92" sqref="K92"/>
+      <selection pane="bottomRight" activeCell="H133" sqref="H133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="1"/>
-    <col min="3" max="3" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="110.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="110.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1374,7 +1416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>44700</v>
       </c>
@@ -1394,7 +1436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>44715</v>
       </c>
@@ -1414,7 +1456,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>44715</v>
       </c>
@@ -1434,7 +1476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>44715</v>
       </c>
@@ -1454,7 +1496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>44715</v>
       </c>
@@ -1474,7 +1516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>44715</v>
       </c>
@@ -1494,7 +1536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>44715</v>
       </c>
@@ -1514,7 +1556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>44715</v>
       </c>
@@ -1534,7 +1576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>44715</v>
       </c>
@@ -1554,7 +1596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>44715</v>
       </c>
@@ -1574,7 +1616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>44715</v>
       </c>
@@ -1594,7 +1636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>44715</v>
       </c>
@@ -1614,7 +1656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>44715</v>
       </c>
@@ -1634,7 +1676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>44715</v>
       </c>
@@ -1654,7 +1696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>44715</v>
       </c>
@@ -1674,7 +1716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>44715</v>
       </c>
@@ -1694,7 +1736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>44715</v>
       </c>
@@ -1714,7 +1756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>44715</v>
       </c>
@@ -1734,7 +1776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>44715</v>
       </c>
@@ -1754,7 +1796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>44715</v>
       </c>
@@ -1774,7 +1816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>44715</v>
       </c>
@@ -1794,7 +1836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>44715</v>
       </c>
@@ -1814,7 +1856,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>44715</v>
       </c>
@@ -1834,7 +1876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>44715</v>
       </c>
@@ -1854,7 +1896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>44715</v>
       </c>
@@ -1874,7 +1916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>44715</v>
       </c>
@@ -1894,7 +1936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>44715</v>
       </c>
@@ -1914,7 +1956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>44715</v>
       </c>
@@ -1934,7 +1976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>44715</v>
       </c>
@@ -1954,7 +1996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>44715</v>
       </c>
@@ -1974,7 +2016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>44715</v>
       </c>
@@ -1994,7 +2036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>44715</v>
       </c>
@@ -2014,7 +2056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>44715</v>
       </c>
@@ -2034,7 +2076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>44715</v>
       </c>
@@ -2054,7 +2096,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>44715</v>
       </c>
@@ -2074,7 +2116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>44715</v>
       </c>
@@ -2094,7 +2136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>44715</v>
       </c>
@@ -2114,7 +2156,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>44715</v>
       </c>
@@ -2134,7 +2176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>44715</v>
       </c>
@@ -2154,7 +2196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>44715</v>
       </c>
@@ -2174,7 +2216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>44715</v>
       </c>
@@ -2194,7 +2236,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>44715</v>
       </c>
@@ -2214,7 +2256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>44715</v>
       </c>
@@ -2234,7 +2276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>44715</v>
       </c>
@@ -2254,7 +2296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44715</v>
       </c>
@@ -2274,7 +2316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>44715</v>
       </c>
@@ -2294,7 +2336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>44715</v>
       </c>
@@ -2314,7 +2356,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>44715</v>
       </c>
@@ -2334,7 +2376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>44715</v>
       </c>
@@ -2354,7 +2396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>44715</v>
       </c>
@@ -2374,7 +2416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>44715</v>
       </c>
@@ -2394,7 +2436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>44715</v>
       </c>
@@ -2414,7 +2456,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>44715</v>
       </c>
@@ -2434,7 +2476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>44715</v>
       </c>
@@ -2454,7 +2496,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>44715</v>
       </c>
@@ -2474,7 +2516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>44715</v>
       </c>
@@ -2494,7 +2536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>44715</v>
       </c>
@@ -2514,7 +2556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>44715</v>
       </c>
@@ -2534,7 +2576,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>44715</v>
       </c>
@@ -2554,7 +2596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>44715</v>
       </c>
@@ -2574,7 +2616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>44715</v>
       </c>
@@ -2594,7 +2636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>44719</v>
       </c>
@@ -2614,7 +2656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>44719</v>
       </c>
@@ -2634,7 +2676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>44719</v>
       </c>
@@ -2654,7 +2696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>44719</v>
       </c>
@@ -2674,7 +2716,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>44719</v>
       </c>
@@ -2694,7 +2736,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>44719</v>
       </c>
@@ -2714,7 +2756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>44754</v>
       </c>
@@ -2734,7 +2776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>44754</v>
       </c>
@@ -2754,7 +2796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>44754</v>
       </c>
@@ -2774,7 +2816,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>44754</v>
       </c>
@@ -2794,7 +2836,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>44754</v>
       </c>
@@ -2814,7 +2856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>44754</v>
       </c>
@@ -2834,7 +2876,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>44754</v>
       </c>
@@ -2852,7 +2894,7 @@
       </c>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>44754</v>
       </c>
@@ -2870,7 +2912,7 @@
       </c>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>44754</v>
       </c>
@@ -2890,7 +2932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>44754</v>
       </c>
@@ -2910,7 +2952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>44754</v>
       </c>
@@ -2930,7 +2972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>44754</v>
       </c>
@@ -2950,7 +2992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>44754</v>
       </c>
@@ -2970,7 +3012,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>44754</v>
       </c>
@@ -2990,7 +3032,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>44754</v>
       </c>
@@ -3010,7 +3052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>44754</v>
       </c>
@@ -3030,7 +3072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>44754</v>
       </c>
@@ -3050,7 +3092,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>44754</v>
       </c>
@@ -3070,7 +3112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>44754</v>
       </c>
@@ -3090,7 +3132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>44754</v>
       </c>
@@ -3110,7 +3152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>44754</v>
       </c>
@@ -3130,7 +3172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>44754</v>
       </c>
@@ -3150,7 +3192,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>44754</v>
       </c>
@@ -3170,7 +3212,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>44754</v>
       </c>
@@ -3190,7 +3232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>44754</v>
       </c>
@@ -3210,7 +3252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>44754</v>
       </c>
@@ -3230,7 +3272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>44754</v>
       </c>
@@ -3250,7 +3292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>44754</v>
       </c>
@@ -3270,7 +3312,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>44754</v>
       </c>
@@ -3290,7 +3332,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>44754</v>
       </c>
@@ -3310,7 +3352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>44754</v>
       </c>
@@ -3330,7 +3372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>44754</v>
       </c>
@@ -3350,7 +3392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>44754</v>
       </c>
@@ -3370,7 +3412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>44754</v>
       </c>
@@ -3390,7 +3432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>44754</v>
       </c>
@@ -3410,7 +3452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>44754</v>
       </c>
@@ -3430,7 +3472,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>44754</v>
       </c>
@@ -3450,7 +3492,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>44754</v>
       </c>
@@ -3470,7 +3512,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>44754</v>
       </c>
@@ -3490,7 +3532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>44754</v>
       </c>
@@ -3510,7 +3552,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>44754</v>
       </c>
@@ -3530,7 +3572,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>44754</v>
       </c>
@@ -3550,7 +3592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>44754</v>
       </c>
@@ -3570,7 +3612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>44754</v>
       </c>
@@ -3590,7 +3632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>44754</v>
       </c>
@@ -3610,7 +3652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>44754</v>
       </c>
@@ -3630,7 +3672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>44754</v>
       </c>
@@ -3650,7 +3692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>44754</v>
       </c>
@@ -3670,7 +3712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>44754</v>
       </c>
@@ -3690,7 +3732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>44754</v>
       </c>
@@ -3710,7 +3752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>44754</v>
       </c>
@@ -3730,7 +3772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>44754</v>
       </c>
@@ -3750,7 +3792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>44754</v>
       </c>
@@ -3770,7 +3812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>44754</v>
       </c>
@@ -3790,7 +3832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>44754</v>
       </c>
@@ -3810,7 +3852,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>44754</v>
       </c>
@@ -3830,7 +3872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>44754</v>
       </c>
@@ -3850,7 +3892,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>44754</v>
       </c>
@@ -3870,7 +3912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>44754</v>
       </c>
@@ -3890,7 +3932,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>44754</v>
       </c>
@@ -3910,7 +3952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>44754</v>
       </c>
@@ -3930,7 +3972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>44754</v>
       </c>
@@ -3950,7 +3992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>44754</v>
       </c>
@@ -3968,6 +4010,86 @@
       </c>
       <c r="F131" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="8">
+        <v>44777</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F132" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="8">
+        <v>44778</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F133" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="8">
+        <v>44778</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F134" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="8">
+        <v>44778</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F135" s="4">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3987,33 +4109,16 @@
     <hyperlink ref="F78:F87" r:id="rId12" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/26" xr:uid="{99F47488-7EFB-4D78-842D-BA8B8258C4A8}"/>
     <hyperlink ref="F88:F98" r:id="rId13" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/26" xr:uid="{9D2670DC-365B-4841-BD4F-11E66B03A343}"/>
     <hyperlink ref="F99:F130" r:id="rId14" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/26" xr:uid="{BCF8CED7-A426-4CD2-A78B-CED48AC0A46C}"/>
+    <hyperlink ref="F132" r:id="rId15" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/38" xr:uid="{F404522D-925C-4222-AAEC-0A89159152D1}"/>
+    <hyperlink ref="F133" r:id="rId16" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/33" xr:uid="{C84F176F-83C4-4CF9-A3FB-1A6C6D08850F}"/>
+    <hyperlink ref="F134:F135" r:id="rId17" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/33" xr:uid="{31FEE580-D060-4F03-9029-CC8301545EBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b2208f11-ae8c-46f3-b7de-f72e1c6d0934">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AC745917B956084FBC19C2B85F94DD54" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="865a07db5559135b02b49b365e0b81ea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2208f11-ae8c-46f3-b7de-f72e1c6d0934" xmlns:ns3="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e91ff7f3783b5129c9128fce1d9ba9c" ns2:_="" ns3:_="">
     <xsd:import namespace="b2208f11-ae8c-46f3-b7de-f72e1c6d0934"/>
@@ -4250,32 +4355,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86D3F574-1D4C-41FF-8CB3-6F4DD5AF995B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b2208f11-ae8c-46f3-b7de-f72e1c6d0934">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F3D8B3A-6998-4DF6-A0B6-219B9EFDF5AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b2208f11-ae8c-46f3-b7de-f72e1c6d0934"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5F5A1BD-A9B3-477A-AFD5-C929335163D7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4292,4 +4392,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F3D8B3A-6998-4DF6-A0B6-219B9EFDF5AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b2208f11-ae8c-46f3-b7de-f72e1c6d0934"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86D3F574-1D4C-41FF-8CB3-6F4DD5AF995B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CDR Test Documentation CHANGE LOG.xlsx
+++ b/CDR Test Documentation CHANGE LOG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://govteams.sharepoint.com/sites/datastandardsbody/Shared Documents/Standards and Guidelines/Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="361" documentId="8_{9B3D86EA-31BB-4D21-B7B8-766CEFF32DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38FA94F8-7BC9-42A6-B10E-D978C61C3908}"/>
+  <xr:revisionPtr revIDLastSave="482" documentId="8_{9B3D86EA-31BB-4D21-B7B8-766CEFF32DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C1C697A-CC88-4CDD-8781-7EF96AC7C6F2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1E61262-89E5-4C9F-B6BD-CA910CFEB013}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="266">
   <si>
     <t>Change date</t>
   </si>
@@ -944,6 +944,84 @@
   </si>
   <si>
     <t>T.EAA.001-056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title </t>
+  </si>
+  <si>
+    <t>Changed the second mention of 'validate' to 'invalid'</t>
+  </si>
+  <si>
+    <t>Added Suite.005 Assertions</t>
+  </si>
+  <si>
+    <t>Added Suite.005 Test Cases</t>
+  </si>
+  <si>
+    <t>T.EAR.133-140</t>
+  </si>
+  <si>
+    <t>Added test cases to cover an invalid minimum version in A.CVM.002 for Suite.010</t>
+  </si>
+  <si>
+    <t>Given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changed [1,25,1000,null] to [1..1000,null] </t>
+  </si>
+  <si>
+    <t>T.EAS.078-083</t>
+  </si>
+  <si>
+    <t>Added test cases to cover an invalid minimum version in A.CVM.002 for Suite.011</t>
+  </si>
+  <si>
+    <t>S.EAS.089-100</t>
+  </si>
+  <si>
+    <t>S.EAR.073-088</t>
+  </si>
+  <si>
+    <t>Added T.EAR.133-140 Test Case refrences to Suite.010 Scenarios</t>
+  </si>
+  <si>
+    <t>Added T.EAS.078-083 Test Case refrences to Suite.011 Scenarios</t>
+  </si>
+  <si>
+    <t>S.CAA.035-038</t>
+  </si>
+  <si>
+    <t>T.CAA.001-012</t>
+  </si>
+  <si>
+    <t>A.CAA.001-002</t>
+  </si>
+  <si>
+    <t>Added T.CAA.001-012 Test Case references to Suite.005 Scenarios</t>
+  </si>
+  <si>
+    <t>A.CAC.001-002</t>
+  </si>
+  <si>
+    <t>T.CAC.001-026</t>
+  </si>
+  <si>
+    <t>S.CAC.039-042</t>
+  </si>
+  <si>
+    <t>Added Suite.006 Assertions</t>
+  </si>
+  <si>
+    <t>Added Suite.006 Test Cases</t>
+  </si>
+  <si>
+    <t>Added T.CAC.001-026 Test Case references to Suite.006 Scenarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given </t>
+  </si>
+  <si>
+    <t>Added "AND the customer is present"</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1059,6 +1137,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1376,13 +1457,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4B9470-3BCE-4ABB-997A-921DA99601C0}">
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C123" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H133" sqref="H133"/>
+      <selection pane="bottomRight" activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4090,6 +4171,286 @@
       </c>
       <c r="F135" s="4">
         <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="8">
+        <v>44783</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F136" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="8">
+        <v>44783</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F137" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="8">
+        <v>44783</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F138" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="8">
+        <v>44783</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F139" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="8">
+        <v>44783</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F140" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="8">
+        <v>44788</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F141" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="8">
+        <v>44788</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F142" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="8">
+        <v>44788</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F143" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="8">
+        <v>44788</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F144" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="8">
+        <v>44788</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F145" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="8">
+        <v>44795</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F146" s="11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="8">
+        <v>44795</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F147" s="11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="8">
+        <v>44795</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F148" s="11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="8">
+        <v>44797</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4112,13 +4473,44 @@
     <hyperlink ref="F132" r:id="rId15" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/38" xr:uid="{F404522D-925C-4222-AAEC-0A89159152D1}"/>
     <hyperlink ref="F133" r:id="rId16" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/33" xr:uid="{C84F176F-83C4-4CF9-A3FB-1A6C6D08850F}"/>
     <hyperlink ref="F134:F135" r:id="rId17" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/33" xr:uid="{31FEE580-D060-4F03-9029-CC8301545EBE}"/>
+    <hyperlink ref="F136" r:id="rId18" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/48" xr:uid="{2740F1E3-CC0B-4853-8420-567273C5D6B4}"/>
+    <hyperlink ref="F137" r:id="rId19" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/48" xr:uid="{23CB1E43-E49F-4244-9C0C-B0EBA4B833FC}"/>
+    <hyperlink ref="F138" r:id="rId20" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/35" xr:uid="{4FF5FB10-9973-4506-9A97-425C9B1DC37E}"/>
+    <hyperlink ref="F139" r:id="rId21" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/35" xr:uid="{EAA3FBD5-2DE9-47E4-AFCC-416EEA665EB7}"/>
+    <hyperlink ref="F140" r:id="rId22" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/35" xr:uid="{C51931C9-583E-464C-898D-006B5C8D5B1D}"/>
+    <hyperlink ref="F145" r:id="rId23" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/50" xr:uid="{906AA638-A83D-4B16-BB3C-4C05ABA5A0D3}"/>
+    <hyperlink ref="F141" r:id="rId24" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/49" xr:uid="{D009A2A4-8F89-4679-A308-1005B8FE9BD6}"/>
+    <hyperlink ref="F142" r:id="rId25" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/49" xr:uid="{30D66D26-A0CD-4CC1-A171-2C8235019171}"/>
+    <hyperlink ref="F143:F144" r:id="rId26" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/49" xr:uid="{AA1DA25B-559D-48A5-AFC5-9A7642616855}"/>
+    <hyperlink ref="F146" r:id="rId27" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/36" xr:uid="{C6CF1481-F622-428A-B90C-42D73783026E}"/>
+    <hyperlink ref="F147:F148" r:id="rId28" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/36" xr:uid="{B282DBA2-C693-46C6-BA84-B75D5680EC7A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b2208f11-ae8c-46f3-b7de-f72e1c6d0934">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AC745917B956084FBC19C2B85F94DD54" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="865a07db5559135b02b49b365e0b81ea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2208f11-ae8c-46f3-b7de-f72e1c6d0934" xmlns:ns3="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e91ff7f3783b5129c9128fce1d9ba9c" ns2:_="" ns3:_="">
     <xsd:import namespace="b2208f11-ae8c-46f3-b7de-f72e1c6d0934"/>
@@ -4355,27 +4747,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b2208f11-ae8c-46f3-b7de-f72e1c6d0934">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86D3F574-1D4C-41FF-8CB3-6F4DD5AF995B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F3D8B3A-6998-4DF6-A0B6-219B9EFDF5AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="b2208f11-ae8c-46f3-b7de-f72e1c6d0934"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5F5A1BD-A9B3-477A-AFD5-C929335163D7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4392,29 +4789,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F3D8B3A-6998-4DF6-A0B6-219B9EFDF5AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b2208f11-ae8c-46f3-b7de-f72e1c6d0934"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86D3F574-1D4C-41FF-8CB3-6F4DD5AF995B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CDR Test Documentation CHANGE LOG.xlsx
+++ b/CDR Test Documentation CHANGE LOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://govteams.sharepoint.com/sites/datastandardsbody/Shared Documents/Standards and Guidelines/Testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codeRepos\codeDataStandards\standards-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="482" documentId="8_{9B3D86EA-31BB-4D21-B7B8-766CEFF32DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C1C697A-CC88-4CDD-8781-7EF96AC7C6F2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5891F0F-D168-4BB9-9718-30F8F1F15F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1E61262-89E5-4C9F-B6BD-CA910CFEB013}"/>
+    <workbookView xWindow="-38520" yWindow="2835" windowWidth="38640" windowHeight="21240" xr2:uid="{E1E61262-89E5-4C9F-B6BD-CA910CFEB013}"/>
   </bookViews>
   <sheets>
     <sheet name="Change log" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="268">
   <si>
     <t>Change date</t>
   </si>
@@ -388,55 +388,25 @@
     <t xml:space="preserve">A.CFC.001 added  </t>
   </si>
   <si>
+    <t>1.0.2</t>
+  </si>
+  <si>
     <t>T.EAR.001</t>
   </si>
   <si>
     <t>References</t>
   </si>
   <si>
+    <t xml:space="preserve">Added link to Postman examples </t>
+  </si>
+  <si>
     <t>T.EAR.033</t>
   </si>
   <si>
     <t>T.EAR.109</t>
   </si>
   <si>
-    <t xml:space="preserve">Added link to Postman examples </t>
-  </si>
-  <si>
-    <t>1.0.2</t>
-  </si>
-  <si>
     <t>A.EAR.001</t>
-  </si>
-  <si>
-    <t>A.EAR.002</t>
-  </si>
-  <si>
-    <t>A.EAR.003</t>
-  </si>
-  <si>
-    <t>A.EAR.004</t>
-  </si>
-  <si>
-    <t>A.EAR.005</t>
-  </si>
-  <si>
-    <t>A.EAR.006</t>
-  </si>
-  <si>
-    <t>A.EAR.007</t>
-  </si>
-  <si>
-    <t>A.EAR.008</t>
-  </si>
-  <si>
-    <t>A.EAR.009</t>
-  </si>
-  <si>
-    <t>A.EAR.010</t>
-  </si>
-  <si>
-    <t>A.EAR.011</t>
   </si>
   <si>
     <t xml:space="preserve">Given; When </t>
@@ -450,6 +420,9 @@
 a response is returned</t>
   </si>
   <si>
+    <t>A.EAR.002</t>
+  </si>
+  <si>
     <t>Changed the {servicePointId} is included in the ADR to DH request url
 to
 the {servicePointId} is included AND the requested service point is permanently unavailable. (No subsequent request for the service point will be successful.)
@@ -458,12 +431,62 @@
 a response is returned</t>
   </si>
   <si>
+    <t>A.EAR.003</t>
+  </si>
+  <si>
+    <t>Changed the {servicePointId} is included in the ADR to DH request url
+to
+the {servicePointId} is included AND the requested service point is temporarily unavailable. (Subsequent requests for the service point may be successful.)
+Changed The requested service point is temporarily unavailable. (Subsequent requests for the service point may be successful.) 
+to 
+a response is returned</t>
+  </si>
+  <si>
+    <t>A.EAR.004</t>
+  </si>
+  <si>
+    <t>Deleted by the ADR 
+Changed the DH receives the request
+to
+a response is returned</t>
+  </si>
+  <si>
+    <t>A.EAR.005</t>
+  </si>
+  <si>
+    <t>Deleted in the ADR to DH request AND added AND the {servicePointId} value is valid AND the request is formated correctly
+Changed the {servicePointId} value is valid AND the request is formated correctly
+to
+a response is returned</t>
+  </si>
+  <si>
+    <t>A.EAR.006</t>
+  </si>
+  <si>
     <t xml:space="preserve">When </t>
   </si>
   <si>
     <t>Changed the DH receives the request AND interprets the Body
 to 
 a response is returned</t>
+  </si>
+  <si>
+    <t>A.EAR.007</t>
+  </si>
+  <si>
+    <t>Deleted in the ADR to DH request AND added AND the {servicePointId} value is valid 
+Changed the {servicePointId} value is valid 
+to
+a response is returned</t>
+  </si>
+  <si>
+    <t>A.EAR.008</t>
+  </si>
+  <si>
+    <t>A.EAR.009</t>
+  </si>
+  <si>
+    <t>A.EAR.010</t>
   </si>
   <si>
     <t>Deleted by the ADR
@@ -472,37 +495,10 @@
 a response is returned</t>
   </si>
   <si>
+    <t>A.EAR.011</t>
+  </si>
+  <si>
     <t>A.EAS.001</t>
-  </si>
-  <si>
-    <t>A.EAS.002</t>
-  </si>
-  <si>
-    <t>A.EAS.003</t>
-  </si>
-  <si>
-    <t>A.EAS.004</t>
-  </si>
-  <si>
-    <t>A.EAS.005</t>
-  </si>
-  <si>
-    <t>A.EAS.006</t>
-  </si>
-  <si>
-    <t>A.EAS.007</t>
-  </si>
-  <si>
-    <t>A.EAS.008</t>
-  </si>
-  <si>
-    <t>A.EAS.009</t>
-  </si>
-  <si>
-    <t>A.EAS.010</t>
-  </si>
-  <si>
-    <t>A.EAS.011</t>
   </si>
   <si>
     <t>Changed the {servicePointId} is included in the DH to SDH request 
@@ -513,6 +509,9 @@
 a response is returned</t>
   </si>
   <si>
+    <t>A.EAS.002</t>
+  </si>
+  <si>
     <t>Changed the {servicePointId} is included in the DH to SDH request 
 to
 the {servicePointId} is included AND the requested service point is permanently unavailable. (No subsequent request for the service point will be successful.)
@@ -521,12 +520,7 @@
 a response is returned</t>
   </si>
   <si>
-    <t>Changed the {servicePointId} is included in the ADR to DH request url
-to
-the {servicePointId} is included AND the requested service point is temporarily unavailable. (Subsequent requests for the service point may be successful.)
-Changed The requested service point is temporarily unavailable. (Subsequent requests for the service point may be successful.) 
-to 
-a response is returned</t>
+    <t>A.EAS.003</t>
   </si>
   <si>
     <t>Changed the {servicePointId} is included in the DH to SDH request 
@@ -537,10 +531,7 @@
 a response is returned</t>
   </si>
   <si>
-    <t>Deleted by the ADR 
-Changed the DH receives the request
-to
-a response is returned</t>
+    <t>A.EAS.004</t>
   </si>
   <si>
     <t>Deleted by the DH 
@@ -549,27 +540,24 @@
 a response is returned</t>
   </si>
   <si>
+    <t>A.EAS.005</t>
+  </si>
+  <si>
     <t>Deleted in the DH to SDH request 
 Changed the {servicePointId} value is valid AND the request is formated correctly
 to
 a response is returned</t>
   </si>
   <si>
+    <t>A.EAS.006</t>
+  </si>
+  <si>
     <t>Changed the SDH receives the request and interprets the Body
 to 
 a response is returned</t>
   </si>
   <si>
-    <t>Deleted in the ADR to DH request AND added AND the {servicePointId} value is valid 
-Changed the {servicePointId} value is valid 
-to
-a response is returned</t>
-  </si>
-  <si>
-    <t>Deleted in the ADR to DH request AND added AND the {servicePointId} value is valid AND the request is formated correctly
-Changed the {servicePointId} value is valid AND the request is formated correctly
-to
-a response is returned</t>
+    <t>A.EAS.007</t>
   </si>
   <si>
     <t>Added AND the {servicePointId} value is valid 
@@ -578,6 +566,9 @@
 response is returned</t>
   </si>
   <si>
+    <t>A.EAS.008</t>
+  </si>
+  <si>
     <t>When</t>
   </si>
   <si>
@@ -586,88 +577,16 @@
 response is returned</t>
   </si>
   <si>
+    <t>A.EAS.009</t>
+  </si>
+  <si>
+    <t>A.EAS.010</t>
+  </si>
+  <si>
+    <t>A.EAS.011</t>
+  </si>
+  <si>
     <t>A.CPG.001</t>
-  </si>
-  <si>
-    <t>A.CPG.002</t>
-  </si>
-  <si>
-    <t>A.CPG.003</t>
-  </si>
-  <si>
-    <t>A.CPG.004</t>
-  </si>
-  <si>
-    <t>A.CPG.005</t>
-  </si>
-  <si>
-    <t>A.CVN.001</t>
-  </si>
-  <si>
-    <t>A.CVN.002</t>
-  </si>
-  <si>
-    <t>A.CVN.003</t>
-  </si>
-  <si>
-    <t>A.CFI.001</t>
-  </si>
-  <si>
-    <t>A.CFI.003</t>
-  </si>
-  <si>
-    <t>A.CFA.001</t>
-  </si>
-  <si>
-    <t>A.CFA.002</t>
-  </si>
-  <si>
-    <t>A.CFA.003</t>
-  </si>
-  <si>
-    <t>A.CFA.004</t>
-  </si>
-  <si>
-    <t>A.CFC.001</t>
-  </si>
-  <si>
-    <t>A.CFC.002</t>
-  </si>
-  <si>
-    <t>A.CFC.003</t>
-  </si>
-  <si>
-    <t>A.CCH.001</t>
-  </si>
-  <si>
-    <t>A.CCH.002</t>
-  </si>
-  <si>
-    <t>A.CCH.003</t>
-  </si>
-  <si>
-    <t>A.CAI.001</t>
-  </si>
-  <si>
-    <t>A.CAI.002</t>
-  </si>
-  <si>
-    <t>A.CAI.003</t>
-  </si>
-  <si>
-    <t>A.COD.001</t>
-  </si>
-  <si>
-    <t>A.COD.002</t>
-  </si>
-  <si>
-    <t>A.CND.001</t>
-  </si>
-  <si>
-    <t>A.CND.002</t>
-  </si>
-  <si>
-    <t>A.CBD.001</t>
   </si>
   <si>
     <t>Given; When; Then</t>
@@ -681,6 +600,9 @@
 Deleted AND the response has a status of 200</t>
   </si>
   <si>
+    <t>A.CPG.002</t>
+  </si>
+  <si>
     <t>Deleted in a GET Request AND Added the the value for &lt;page-size&gt; is outside the range [1..1000]
 OR the &lt;page-size&gt; is a not a positive integer
 Changed the value for &lt;page-size&gt; is outside the range [1..1000]
@@ -689,22 +611,37 @@
 a response is returned</t>
   </si>
   <si>
+    <t>A.CPG.003</t>
+  </si>
+  <si>
     <t>Deleted in a GET request AND added AND the &lt;page&gt; is a not a positive integer
 Changed the &lt;page&gt; is a not a positive integer
 to 
 a response is returned</t>
   </si>
   <si>
+    <t>A.CPG.004</t>
+  </si>
+  <si>
     <t>Deleted in a GET request AND added AND the &lt;page&gt; value is greater than the number of pages available 
 Changed the &lt;page&gt; value is greater than the number of pages available 
 to 
 a response is returned</t>
   </si>
   <si>
+    <t>A.CPG.005</t>
+  </si>
+  <si>
     <t>Deleted in a GET request AND added AND the page size parameter value is not a positive integer (number)
 Changed the page size parameter value is not a positive integer (number)
 to 
 a response is returned</t>
+  </si>
+  <si>
+    <t>A.CVN.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given; When; Then </t>
   </si>
   <si>
     <t>Deleted in a GET request AND added AND the value for the &lt;x-v&gt; is a positive integer
@@ -714,7 +651,7 @@
 Deleted the response has a status of 200</t>
   </si>
   <si>
-    <t xml:space="preserve">Given; When; Then </t>
+    <t>A.CVN.002</t>
   </si>
   <si>
     <t>Deleted in a GET request AND added AND the version value is not a valid number is [-1,0,1001]
@@ -723,6 +660,9 @@
 a response is returned</t>
   </si>
   <si>
+    <t>A.CVN.003</t>
+  </si>
+  <si>
     <t>Deleted in a GET request AND added AND the verison value is not a valid number is an alpha (e.g. "foo")
 Changed the verison value is not a valid number is an alpha (e.g. "foo")
 to 
@@ -753,7 +693,7 @@
 a response is returned</t>
   </si>
   <si>
-    <t>ASSERTIONS</t>
+    <t>A.CFI.001</t>
   </si>
   <si>
     <t>Added AND the &lt;x-fapi-interaction-id&gt; is in a valid format 
@@ -763,10 +703,16 @@
 Deleted AND</t>
   </si>
   <si>
+    <t>A.CFI.003</t>
+  </si>
+  <si>
     <t>Deleted in the GET request AND Added AND the &lt;x-fapi-interaction-id&gt; is not in a valid format 
 Changed the &lt;x-fapi-interaction-id&gt; is not in a valid format 
 to 
 a response is returned</t>
+  </si>
+  <si>
+    <t>A.CFA.001</t>
   </si>
   <si>
     <t>Changed the called API is a resource call and does require authentication
@@ -783,6 +729,9 @@
 AND is in a valid format</t>
   </si>
   <si>
+    <t>A.CFA.002</t>
+  </si>
+  <si>
     <t>Changed the called API is a resource call and does require authentication
 to 
 the API requires authentication AND the &lt;x-fapi-auth-date&gt; is NOT present  in the request header
@@ -792,6 +741,9 @@
 Added AND the response body has ErrorListReponse object</t>
   </si>
   <si>
+    <t>A.CFA.003</t>
+  </si>
+  <si>
     <t>Changed the called API is a resource call and does require authentication
 to 
 the API requires authentication AND the &lt;x-fapi-auth-date&gt; is in the request header AND is NOT in a valid format
@@ -801,8 +753,14 @@
 a response is returned</t>
   </si>
   <si>
+    <t>A.CFA.004</t>
+  </si>
+  <si>
     <t>Added the API requires authentication AND
 Added AND the response has a status of 200</t>
+  </si>
+  <si>
+    <t>A.CFC.001</t>
   </si>
   <si>
     <t>Deleted called
@@ -816,10 +774,16 @@
 AND is in a valid IPv4 or IPv6 format</t>
   </si>
   <si>
+    <t>A.CFC.002</t>
+  </si>
+  <si>
     <t>Deleted called AND Added AND the &lt;x-fapi-customer-ip-address&gt; is NOT present in the request header
 Changed the &lt;x-fapi-customer-ip-address&gt; is NOT present in the request header
 to 
 a response is returned</t>
+  </si>
+  <si>
+    <t>A.CFC.003</t>
   </si>
   <si>
     <t>Deleted called AND Added AND "the &lt;x-fapi-customer-ip-address&gt; is in present the request header
@@ -827,6 +791,9 @@
 Changed AND the &lt;x-fapi-customer-ip-address&gt; in present the request header AND is NEITHER  in a valid IPv4 or IPv6 format
 to 
 a response is returned</t>
+  </si>
+  <si>
+    <t>A.CCH.001</t>
   </si>
   <si>
     <t>Deleted called
@@ -838,12 +805,18 @@
 the &lt;x-cds-client-headers&gt; is present in the request header AND is Base64 encoded</t>
   </si>
   <si>
+    <t>A.CCH.002</t>
+  </si>
+  <si>
     <t>Changed the called API requires authentication AND the call is an attended, ie customer present, call
 to 
 the API requires authentication AND the &lt;x-cds-client-headers&gt; is mandatory AND the &lt;x-cds-client-headers&gt; is NOT present in the request header
 Changed the &lt;x-cds-client-headers&gt; is NOT present in the request header
 to 
 a response is returned</t>
+  </si>
+  <si>
+    <t>A.CCH.003</t>
   </si>
   <si>
     <t xml:space="preserve">Changed the called API requires authentication AND the call is an attended, ie customer present, call
@@ -855,6 +828,9 @@
 a response is returned </t>
   </si>
   <si>
+    <t>A.CAI.001</t>
+  </si>
+  <si>
     <t xml:space="preserve">When; Then </t>
   </si>
   <si>
@@ -866,10 +842,25 @@
 the &lt;x-cds-arrangement&gt; is present in the request header AND is in a valid format</t>
   </si>
   <si>
+    <t>A.CAI.002</t>
+  </si>
+  <si>
     <t>Added the &lt;x-cds-arrangement&gt; is NOT present in the request header
 Changed the &lt;x-cds-arrangement&gt; is NOT present in the request header
 to  
 a response is returned</t>
+  </si>
+  <si>
+    <t>A.CAI.003</t>
+  </si>
+  <si>
+    <t>Added the &lt;x-cds-arrangement&gt; is present in the request header AND is NOT in a valid format
+Changed the &lt;x-cds-arrangement&gt; is present in the request header AND is NOT in a valid format
+to 
+a response is returned</t>
+  </si>
+  <si>
+    <t>A.COD.001</t>
   </si>
   <si>
     <t>Added AND the &lt;oldest-date&gt; is in a valid DateString format
@@ -879,16 +870,16 @@
 Deleted AND the response has a status of 200</t>
   </si>
   <si>
-    <t>Added the &lt;x-cds-arrangement&gt; is present in the request header AND is NOT in a valid format
-Changed the &lt;x-cds-arrangement&gt; is present in the request header AND is NOT in a valid format
-to 
-a response is returned</t>
+    <t>A.COD.002</t>
   </si>
   <si>
     <t>Added AND the &lt;oldest-date&gt; is not in a DateString valid format
 Changed the &lt;oldest-date&gt; is not in a DateString valid format
 to 
 a response is returned</t>
+  </si>
+  <si>
+    <t>A.CND.001</t>
   </si>
   <si>
     <t>Added AND the &lt;newest-date&gt; is in a valid DateString format
@@ -898,18 +889,27 @@
 Deleted the response has a status of 200 AND</t>
   </si>
   <si>
+    <t>A.CND.002</t>
+  </si>
+  <si>
     <t>Added AND the &lt;newest-date&gt; is not in a valid DateString format
 Changed the &lt;newest-date&gt; is not in a valid DateString format
 to 
 a response is returned</t>
   </si>
   <si>
+    <t>A.CBD.001</t>
+  </si>
+  <si>
     <t>Added AND the request body is not in a valid JSON format, ie it is malformed
 Changed the request body is not in a valid JSON format, ie it is malformed 
 to 
 a response is returned</t>
   </si>
   <si>
+    <t>ASSERTIONS</t>
+  </si>
+  <si>
     <t>Corrected various spellings of 'Response' and typos on 'Interaction', 'Version', 'i.e.', 'formatted' and 'correctly' throughout.</t>
   </si>
   <si>
@@ -928,12 +928,15 @@
     <t>A.EAA.001-006</t>
   </si>
   <si>
+    <t>Added Suite.008 Assertions</t>
+  </si>
+  <si>
+    <t>T.EAA.001-056</t>
+  </si>
+  <si>
     <t>Added Suite.008 Test Cases</t>
   </si>
   <si>
-    <t>Added Suite.008 Assertions</t>
-  </si>
-  <si>
     <t>S.EAA.047-054</t>
   </si>
   <si>
@@ -943,78 +946,75 @@
     <t>Added Test Case references to Scenarios</t>
   </si>
   <si>
-    <t>T.EAA.001-056</t>
+    <t>Changed the second mention of 'validate' to 'invalid'</t>
   </si>
   <si>
     <t xml:space="preserve">Title </t>
   </si>
   <si>
-    <t>Changed the second mention of 'validate' to 'invalid'</t>
+    <t>A.CAA.001-002</t>
   </si>
   <si>
     <t>Added Suite.005 Assertions</t>
   </si>
   <si>
+    <t>T.CAA.001-012</t>
+  </si>
+  <si>
     <t>Added Suite.005 Test Cases</t>
   </si>
   <si>
+    <t>S.CAA.035-038</t>
+  </si>
+  <si>
+    <t>Added T.CAA.001-012 Test Case references to Suite.005 Scenarios</t>
+  </si>
+  <si>
     <t>T.EAR.133-140</t>
   </si>
   <si>
     <t>Added test cases to cover an invalid minimum version in A.CVM.002 for Suite.010</t>
   </si>
   <si>
+    <t>T.EAS.078-083</t>
+  </si>
+  <si>
+    <t>Added test cases to cover an invalid minimum version in A.CVM.002 for Suite.011</t>
+  </si>
+  <si>
+    <t>S.EAR.073-088</t>
+  </si>
+  <si>
+    <t>Added T.EAR.133-140 Test Case refrences to Suite.010 Scenarios</t>
+  </si>
+  <si>
+    <t>S.EAS.089-100</t>
+  </si>
+  <si>
+    <t>Added T.EAS.078-083 Test Case refrences to Suite.011 Scenarios</t>
+  </si>
+  <si>
     <t>Given</t>
   </si>
   <si>
     <t xml:space="preserve">Changed [1,25,1000,null] to [1..1000,null] </t>
   </si>
   <si>
-    <t>T.EAS.078-083</t>
-  </si>
-  <si>
-    <t>Added test cases to cover an invalid minimum version in A.CVM.002 for Suite.011</t>
-  </si>
-  <si>
-    <t>S.EAS.089-100</t>
-  </si>
-  <si>
-    <t>S.EAR.073-088</t>
-  </si>
-  <si>
-    <t>Added T.EAR.133-140 Test Case refrences to Suite.010 Scenarios</t>
-  </si>
-  <si>
-    <t>Added T.EAS.078-083 Test Case refrences to Suite.011 Scenarios</t>
-  </si>
-  <si>
-    <t>S.CAA.035-038</t>
-  </si>
-  <si>
-    <t>T.CAA.001-012</t>
-  </si>
-  <si>
-    <t>A.CAA.001-002</t>
-  </si>
-  <si>
-    <t>Added T.CAA.001-012 Test Case references to Suite.005 Scenarios</t>
-  </si>
-  <si>
     <t>A.CAC.001-002</t>
   </si>
   <si>
+    <t>Added Suite.006 Assertions</t>
+  </si>
+  <si>
     <t>T.CAC.001-026</t>
   </si>
   <si>
+    <t>Added Suite.006 Test Cases</t>
+  </si>
+  <si>
     <t>S.CAC.039-042</t>
   </si>
   <si>
-    <t>Added Suite.006 Assertions</t>
-  </si>
-  <si>
-    <t>Added Suite.006 Test Cases</t>
-  </si>
-  <si>
     <t>Added T.CAC.001-026 Test Case references to Suite.006 Scenarios</t>
   </si>
   <si>
@@ -1022,6 +1022,12 @@
   </si>
   <si>
     <t>Added "AND the customer is present"</t>
+  </si>
+  <si>
+    <t>1.0.4</t>
+  </si>
+  <si>
+    <t>Added 'Information' message to Introduction section advising of the forthcoming change to Identifiers.  Numbers increasing from 3 characters to 4 and reallocation of alpha characters for some identifiers.  More details along with a mapping from old to new identifiers will be provided in v2.0.0 when the related issue is resolved.</t>
   </si>
 </sst>
 </file>
@@ -1457,13 +1463,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4B9470-3BCE-4ABB-997A-921DA99601C0}">
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E152" sqref="E152"/>
+      <selection pane="bottomRight" activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2842,16 +2848,16 @@
         <v>44754</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F69" s="4">
         <v>21</v>
@@ -2862,16 +2868,16 @@
         <v>44754</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F70" s="4">
         <v>21</v>
@@ -2882,16 +2888,16 @@
         <v>44754</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F71" s="4">
         <v>21</v>
@@ -2902,16 +2908,16 @@
         <v>44754</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="E72" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F72" s="4">
         <v>21</v>
@@ -2922,16 +2928,16 @@
         <v>44754</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F73" s="4">
         <v>21</v>
@@ -2942,16 +2948,16 @@
         <v>44754</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E74" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="F74" s="4">
         <v>21</v>
@@ -2962,16 +2968,16 @@
         <v>44754</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F75" s="4"/>
     </row>
@@ -2980,16 +2986,16 @@
         <v>44754</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F76" s="4"/>
     </row>
@@ -2998,16 +3004,16 @@
         <v>44754</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F77" s="4">
         <v>26</v>
@@ -3018,16 +3024,16 @@
         <v>44754</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="E78" s="9" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F78" s="4">
         <v>26</v>
@@ -3038,16 +3044,16 @@
         <v>44754</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="F79" s="4">
         <v>26</v>
@@ -3058,16 +3064,16 @@
         <v>44754</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F80" s="4">
         <v>26</v>
@@ -3078,16 +3084,16 @@
         <v>44754</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="F81" s="4">
         <v>26</v>
@@ -3098,16 +3104,16 @@
         <v>44754</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F82" s="4">
         <v>26</v>
@@ -3118,16 +3124,16 @@
         <v>44754</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="F83" s="4">
         <v>26</v>
@@ -3138,16 +3144,16 @@
         <v>44754</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F84" s="4">
         <v>26</v>
@@ -3158,16 +3164,16 @@
         <v>44754</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F85" s="4">
         <v>26</v>
@@ -3178,16 +3184,16 @@
         <v>44754</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F86" s="4">
         <v>26</v>
@@ -3198,16 +3204,16 @@
         <v>44754</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F87" s="4">
         <v>26</v>
@@ -3218,16 +3224,16 @@
         <v>44754</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F88" s="4">
         <v>26</v>
@@ -3238,16 +3244,16 @@
         <v>44754</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F89" s="4">
         <v>26</v>
@@ -3258,16 +3264,16 @@
         <v>44754</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F90" s="4">
         <v>26</v>
@@ -3278,16 +3284,16 @@
         <v>44754</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F91" s="4">
         <v>26</v>
@@ -3298,16 +3304,16 @@
         <v>44754</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F92" s="4">
         <v>26</v>
@@ -3318,16 +3324,16 @@
         <v>44754</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F93" s="4">
         <v>26</v>
@@ -3338,16 +3344,16 @@
         <v>44754</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F94" s="4">
         <v>26</v>
@@ -3358,16 +3364,16 @@
         <v>44754</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F95" s="4">
         <v>26</v>
@@ -3378,16 +3384,16 @@
         <v>44754</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F96" s="4">
         <v>26</v>
@@ -3398,16 +3404,16 @@
         <v>44754</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F97" s="4">
         <v>26</v>
@@ -3418,16 +3424,16 @@
         <v>44754</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F98" s="4">
         <v>26</v>
@@ -3438,16 +3444,16 @@
         <v>44754</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>164</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="F99" s="4">
         <v>26</v>
@@ -3458,16 +3464,16 @@
         <v>44754</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="F100" s="4">
         <v>26</v>
@@ -3478,16 +3484,16 @@
         <v>44754</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="F101" s="4">
         <v>26</v>
@@ -3498,16 +3504,16 @@
         <v>44754</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="F102" s="4">
         <v>26</v>
@@ -3518,16 +3524,16 @@
         <v>44754</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="F103" s="4">
         <v>26</v>
@@ -3538,16 +3544,16 @@
         <v>44754</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="F104" s="4">
         <v>26</v>
@@ -3558,16 +3564,16 @@
         <v>44754</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="F105" s="4">
         <v>26</v>
@@ -3578,16 +3584,16 @@
         <v>44754</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="F106" s="4">
         <v>26</v>
@@ -3598,16 +3604,16 @@
         <v>44754</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="F107" s="4">
         <v>26</v>
@@ -3618,16 +3624,16 @@
         <v>44754</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="F108" s="4">
         <v>26</v>
@@ -3638,16 +3644,16 @@
         <v>44754</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="F109" s="4">
         <v>26</v>
@@ -3658,16 +3664,16 @@
         <v>44754</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="F110" s="4">
         <v>26</v>
@@ -3678,16 +3684,16 @@
         <v>44754</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="F111" s="4">
         <v>26</v>
@@ -3698,16 +3704,16 @@
         <v>44754</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="F112" s="4">
         <v>26</v>
@@ -3718,16 +3724,16 @@
         <v>44754</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="F113" s="4">
         <v>26</v>
@@ -3738,16 +3744,16 @@
         <v>44754</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="F114" s="4">
         <v>26</v>
@@ -3758,16 +3764,16 @@
         <v>44754</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="F115" s="4">
         <v>26</v>
@@ -3778,16 +3784,16 @@
         <v>44754</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="F116" s="4">
         <v>26</v>
@@ -3798,16 +3804,16 @@
         <v>44754</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="F117" s="4">
         <v>26</v>
@@ -3818,16 +3824,16 @@
         <v>44754</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="F118" s="4">
         <v>26</v>
@@ -3838,16 +3844,16 @@
         <v>44754</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="F119" s="4">
         <v>26</v>
@@ -3858,16 +3864,16 @@
         <v>44754</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="F120" s="4">
         <v>26</v>
@@ -3878,16 +3884,16 @@
         <v>44754</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="F121" s="4">
         <v>26</v>
@@ -3898,16 +3904,16 @@
         <v>44754</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F122" s="4">
         <v>26</v>
@@ -3918,16 +3924,16 @@
         <v>44754</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F123" s="4">
         <v>26</v>
@@ -3938,16 +3944,16 @@
         <v>44754</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F124" s="4">
         <v>26</v>
@@ -3958,16 +3964,16 @@
         <v>44754</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F125" s="4">
         <v>26</v>
@@ -3978,16 +3984,16 @@
         <v>44754</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F126" s="4">
         <v>26</v>
@@ -3998,16 +4004,16 @@
         <v>44754</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F127" s="4">
         <v>26</v>
@@ -4018,16 +4024,16 @@
         <v>44754</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F128" s="4">
         <v>26</v>
@@ -4038,16 +4044,16 @@
         <v>44754</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F129" s="4">
         <v>26</v>
@@ -4058,16 +4064,16 @@
         <v>44754</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F130" s="4">
         <v>26</v>
@@ -4078,13 +4084,13 @@
         <v>44754</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>228</v>
@@ -4127,7 +4133,7 @@
         <v>8</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F133" s="4">
         <v>33</v>
@@ -4141,13 +4147,13 @@
         <v>229</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F134" s="4">
         <v>33</v>
@@ -4161,13 +4167,13 @@
         <v>229</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F135" s="4">
         <v>33</v>
@@ -4181,13 +4187,13 @@
         <v>229</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F136" s="4">
         <v>48</v>
@@ -4201,13 +4207,13 @@
         <v>229</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D137" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="F137" s="4">
         <v>48</v>
@@ -4221,13 +4227,13 @@
         <v>229</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F138" s="4">
         <v>35</v>
@@ -4241,13 +4247,13 @@
         <v>229</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F139" s="4">
         <v>35</v>
@@ -4261,13 +4267,13 @@
         <v>229</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F140" s="4">
         <v>35</v>
@@ -4281,13 +4287,13 @@
         <v>229</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F141" s="11">
         <v>49</v>
@@ -4301,13 +4307,13 @@
         <v>229</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F142" s="11">
         <v>49</v>
@@ -4321,13 +4327,13 @@
         <v>229</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F143" s="11">
         <v>49</v>
@@ -4341,13 +4347,13 @@
         <v>229</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F144" s="11">
         <v>49</v>
@@ -4364,10 +4370,10 @@
         <v>164</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F145" s="11">
         <v>50</v>
@@ -4387,7 +4393,7 @@
         <v>8</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F146" s="11">
         <v>36</v>
@@ -4401,13 +4407,13 @@
         <v>229</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F147" s="11">
         <v>36</v>
@@ -4421,10 +4427,10 @@
         <v>229</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>263</v>
@@ -4441,7 +4447,7 @@
         <v>229</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>264</v>
@@ -4451,6 +4457,26 @@
       </c>
       <c r="F149" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A150" s="8">
+        <v>44981</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F150" s="11">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4484,22 +4510,14 @@
     <hyperlink ref="F143:F144" r:id="rId26" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/49" xr:uid="{AA1DA25B-559D-48A5-AFC5-9A7642616855}"/>
     <hyperlink ref="F146" r:id="rId27" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/36" xr:uid="{C6CF1481-F622-428A-B90C-42D73783026E}"/>
     <hyperlink ref="F147:F148" r:id="rId28" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/36" xr:uid="{B282DBA2-C693-46C6-BA84-B75D5680EC7A}"/>
+    <hyperlink ref="F150" r:id="rId29" display="https://github.com/ConsumerDataStandardsAustralia/standards-testing/issues/57" xr:uid="{017A6099-98F3-47A7-AE23-A72146A25150}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="b2208f11-ae8c-46f3-b7de-f72e1c6d0934">
@@ -4510,9 +4528,9 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AC745917B956084FBC19C2B85F94DD54" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="865a07db5559135b02b49b365e0b81ea">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2208f11-ae8c-46f3-b7de-f72e1c6d0934" xmlns:ns3="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e91ff7f3783b5129c9128fce1d9ba9c" ns2:_="" ns3:_="">
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AC745917B956084FBC19C2B85F94DD54" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e34e475220fa1f7526f2bd0cc4a07822">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b2208f11-ae8c-46f3-b7de-f72e1c6d0934" xmlns:ns3="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="89349359cf995bbb595f21525f298229" ns2:_="" ns3:_="">
     <xsd:import namespace="b2208f11-ae8c-46f3-b7de-f72e1c6d0934"/>
     <xsd:import namespace="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d"/>
     <xsd:element name="properties">
@@ -4535,6 +4553,7 @@
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4605,6 +4624,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="23" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d" elementFormDefault="qualified">
@@ -4747,33 +4771,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86D3F574-1D4C-41FF-8CB3-6F4DD5AF995B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F3D8B3A-6998-4DF6-A0B6-219B9EFDF5AB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b2208f11-ae8c-46f3-b7de-f72e1c6d0934"/>
+    <ds:schemaRef ds:uri="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F3D8B3A-6998-4DF6-A0B6-219B9EFDF5AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="b2208f11-ae8c-46f3-b7de-f72e1c6d0934"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5F5A1BD-A9B3-477A-AFD5-C929335163D7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30DFE00B-0CC2-49DF-9184-C8BFB76BD71C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -4789,4 +4808,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86D3F574-1D4C-41FF-8CB3-6F4DD5AF995B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CDR Test Documentation CHANGE LOG.xlsx
+++ b/CDR Test Documentation CHANGE LOG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_codeRepos\codeDataStandards\standards-testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomasschier/code/_git/consumer-data-standards/standards-testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5891F0F-D168-4BB9-9718-30F8F1F15F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C1D2DB-2FC3-9841-A3EE-C8A54F1F1585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="2835" windowWidth="38640" windowHeight="21240" xr2:uid="{E1E61262-89E5-4C9F-B6BD-CA910CFEB013}"/>
+    <workbookView xWindow="3140" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{E1E61262-89E5-4C9F-B6BD-CA910CFEB013}"/>
   </bookViews>
   <sheets>
     <sheet name="Change log" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1469,21 +1468,21 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E150" sqref="E150"/>
+      <selection pane="bottomRight" activeCell="A152" sqref="A152:XFD152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="110.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="110.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1503,7 +1502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>44700</v>
       </c>
@@ -1523,7 +1522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>44715</v>
       </c>
@@ -1543,7 +1542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>44715</v>
       </c>
@@ -1563,7 +1562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>44715</v>
       </c>
@@ -1583,7 +1582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>44715</v>
       </c>
@@ -1603,7 +1602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>44715</v>
       </c>
@@ -1623,7 +1622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>44715</v>
       </c>
@@ -1643,7 +1642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>44715</v>
       </c>
@@ -1663,7 +1662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>44715</v>
       </c>
@@ -1683,7 +1682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>44715</v>
       </c>
@@ -1703,7 +1702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>44715</v>
       </c>
@@ -1723,7 +1722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>44715</v>
       </c>
@@ -1743,7 +1742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>44715</v>
       </c>
@@ -1763,7 +1762,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>44715</v>
       </c>
@@ -1783,7 +1782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>44715</v>
       </c>
@@ -1803,7 +1802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>44715</v>
       </c>
@@ -1823,7 +1822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>44715</v>
       </c>
@@ -1843,7 +1842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>44715</v>
       </c>
@@ -1863,7 +1862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>44715</v>
       </c>
@@ -1883,7 +1882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>44715</v>
       </c>
@@ -1903,7 +1902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>44715</v>
       </c>
@@ -1923,7 +1922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>44715</v>
       </c>
@@ -1943,7 +1942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>44715</v>
       </c>
@@ -1963,7 +1962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>44715</v>
       </c>
@@ -1983,7 +1982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>44715</v>
       </c>
@@ -2003,7 +2002,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>44715</v>
       </c>
@@ -2023,7 +2022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>44715</v>
       </c>
@@ -2043,7 +2042,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>44715</v>
       </c>
@@ -2063,7 +2062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>44715</v>
       </c>
@@ -2083,7 +2082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>44715</v>
       </c>
@@ -2103,7 +2102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>44715</v>
       </c>
@@ -2123,7 +2122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>44715</v>
       </c>
@@ -2143,7 +2142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>44715</v>
       </c>
@@ -2163,7 +2162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>44715</v>
       </c>
@@ -2183,7 +2182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>44715</v>
       </c>
@@ -2203,7 +2202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>44715</v>
       </c>
@@ -2223,7 +2222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>44715</v>
       </c>
@@ -2243,7 +2242,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>44715</v>
       </c>
@@ -2263,7 +2262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>44715</v>
       </c>
@@ -2283,7 +2282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>44715</v>
       </c>
@@ -2303,7 +2302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>44715</v>
       </c>
@@ -2323,7 +2322,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>44715</v>
       </c>
@@ -2343,7 +2342,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>44715</v>
       </c>
@@ -2363,7 +2362,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>44715</v>
       </c>
@@ -2383,7 +2382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>44715</v>
       </c>
@@ -2403,7 +2402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>44715</v>
       </c>
@@ -2423,7 +2422,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>44715</v>
       </c>
@@ -2443,7 +2442,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>44715</v>
       </c>
@@ -2463,7 +2462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>44715</v>
       </c>
@@ -2483,7 +2482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>44715</v>
       </c>
@@ -2503,7 +2502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>44715</v>
       </c>
@@ -2523,7 +2522,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>44715</v>
       </c>
@@ -2543,7 +2542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>44715</v>
       </c>
@@ -2563,7 +2562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>44715</v>
       </c>
@@ -2583,7 +2582,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>44715</v>
       </c>
@@ -2603,7 +2602,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>44715</v>
       </c>
@@ -2623,7 +2622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>44715</v>
       </c>
@@ -2643,7 +2642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>44715</v>
       </c>
@@ -2663,7 +2662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>44715</v>
       </c>
@@ -2683,7 +2682,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>44715</v>
       </c>
@@ -2703,7 +2702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>44715</v>
       </c>
@@ -2723,7 +2722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>44719</v>
       </c>
@@ -2743,7 +2742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>44719</v>
       </c>
@@ -2763,7 +2762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>44719</v>
       </c>
@@ -2783,7 +2782,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>44719</v>
       </c>
@@ -2803,7 +2802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>44719</v>
       </c>
@@ -2823,7 +2822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>44719</v>
       </c>
@@ -2843,7 +2842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>44754</v>
       </c>
@@ -2863,7 +2862,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>44754</v>
       </c>
@@ -2883,7 +2882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>44754</v>
       </c>
@@ -2903,7 +2902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>44754</v>
       </c>
@@ -2923,7 +2922,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>44754</v>
       </c>
@@ -2943,7 +2942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>44754</v>
       </c>
@@ -2963,7 +2962,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>44754</v>
       </c>
@@ -2981,7 +2980,7 @@
       </c>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>44754</v>
       </c>
@@ -2999,7 +2998,7 @@
       </c>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>44754</v>
       </c>
@@ -3019,7 +3018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <v>44754</v>
       </c>
@@ -3039,7 +3038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>44754</v>
       </c>
@@ -3059,7 +3058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <v>44754</v>
       </c>
@@ -3079,7 +3078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>44754</v>
       </c>
@@ -3099,7 +3098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>44754</v>
       </c>
@@ -3119,7 +3118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>44754</v>
       </c>
@@ -3139,7 +3138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>44754</v>
       </c>
@@ -3159,7 +3158,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>44754</v>
       </c>
@@ -3179,7 +3178,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>44754</v>
       </c>
@@ -3199,7 +3198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>44754</v>
       </c>
@@ -3219,7 +3218,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>44754</v>
       </c>
@@ -3239,7 +3238,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>44754</v>
       </c>
@@ -3259,7 +3258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>44754</v>
       </c>
@@ -3279,7 +3278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>44754</v>
       </c>
@@ -3299,7 +3298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>44754</v>
       </c>
@@ -3319,7 +3318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>44754</v>
       </c>
@@ -3339,7 +3338,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>44754</v>
       </c>
@@ -3359,7 +3358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>44754</v>
       </c>
@@ -3379,7 +3378,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>44754</v>
       </c>
@@ -3399,7 +3398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>44754</v>
       </c>
@@ -3419,7 +3418,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <v>44754</v>
       </c>
@@ -3439,7 +3438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>44754</v>
       </c>
@@ -3459,7 +3458,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <v>44754</v>
       </c>
@@ -3479,7 +3478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>44754</v>
       </c>
@@ -3499,7 +3498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
         <v>44754</v>
       </c>
@@ -3519,7 +3518,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <v>44754</v>
       </c>
@@ -3539,7 +3538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A104" s="8">
         <v>44754</v>
       </c>
@@ -3559,7 +3558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A105" s="8">
         <v>44754</v>
       </c>
@@ -3579,7 +3578,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A106" s="8">
         <v>44754</v>
       </c>
@@ -3599,7 +3598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A107" s="8">
         <v>44754</v>
       </c>
@@ -3619,7 +3618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A108" s="8">
         <v>44754</v>
       </c>
@@ -3639,7 +3638,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A109" s="8">
         <v>44754</v>
       </c>
@@ -3659,7 +3658,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A110" s="8">
         <v>44754</v>
       </c>
@@ -3679,7 +3678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
         <v>44754</v>
       </c>
@@ -3699,7 +3698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
         <v>44754</v>
       </c>
@@ -3719,7 +3718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="192" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>44754</v>
       </c>
@@ -3739,7 +3738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
         <v>44754</v>
       </c>
@@ -3759,7 +3758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
         <v>44754</v>
       </c>
@@ -3779,7 +3778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
         <v>44754</v>
       </c>
@@ -3799,7 +3798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="144" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>44754</v>
       </c>
@@ -3819,7 +3818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
         <v>44754</v>
       </c>
@@ -3839,7 +3838,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
         <v>44754</v>
       </c>
@@ -3859,7 +3858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
         <v>44754</v>
       </c>
@@ -3879,7 +3878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A121" s="8">
         <v>44754</v>
       </c>
@@ -3899,7 +3898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A122" s="8">
         <v>44754</v>
       </c>
@@ -3919,7 +3918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A123" s="8">
         <v>44754</v>
       </c>
@@ -3939,7 +3938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A124" s="8">
         <v>44754</v>
       </c>
@@ -3959,7 +3958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A125" s="8">
         <v>44754</v>
       </c>
@@ -3979,7 +3978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A126" s="8">
         <v>44754</v>
       </c>
@@ -3999,7 +3998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A127" s="8">
         <v>44754</v>
       </c>
@@ -4019,7 +4018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A128" s="8">
         <v>44754</v>
       </c>
@@ -4039,7 +4038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A129" s="8">
         <v>44754</v>
       </c>
@@ -4059,7 +4058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A130" s="8">
         <v>44754</v>
       </c>
@@ -4079,7 +4078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="8">
         <v>44754</v>
       </c>
@@ -4099,7 +4098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="8">
         <v>44777</v>
       </c>
@@ -4119,7 +4118,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="8">
         <v>44778</v>
       </c>
@@ -4139,7 +4138,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="8">
         <v>44778</v>
       </c>
@@ -4159,7 +4158,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="8">
         <v>44778</v>
       </c>
@@ -4179,7 +4178,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="8">
         <v>44783</v>
       </c>
@@ -4199,7 +4198,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="8">
         <v>44783</v>
       </c>
@@ -4219,7 +4218,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="8">
         <v>44783</v>
       </c>
@@ -4239,7 +4238,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="8">
         <v>44783</v>
       </c>
@@ -4259,7 +4258,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="8">
         <v>44783</v>
       </c>
@@ -4279,7 +4278,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="8">
         <v>44788</v>
       </c>
@@ -4299,7 +4298,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="8">
         <v>44788</v>
       </c>
@@ -4319,7 +4318,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="8">
         <v>44788</v>
       </c>
@@ -4339,7 +4338,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="8">
         <v>44788</v>
       </c>
@@ -4359,7 +4358,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="8">
         <v>44788</v>
       </c>
@@ -4379,7 +4378,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="8">
         <v>44795</v>
       </c>
@@ -4399,7 +4398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="8">
         <v>44795</v>
       </c>
@@ -4419,7 +4418,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="8">
         <v>44795</v>
       </c>
@@ -4439,7 +4438,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="8">
         <v>44797</v>
       </c>
@@ -4459,7 +4458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A150" s="8">
         <v>44981</v>
       </c>
@@ -4518,14 +4517,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b2208f11-ae8c-46f3-b7de-f72e1c6d0934">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4772,21 +4769,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b2208f11-ae8c-46f3-b7de-f72e1c6d0934">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F3D8B3A-6998-4DF6-A0B6-219B9EFDF5AB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86D3F574-1D4C-41FF-8CB3-6F4DD5AF995B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b2208f11-ae8c-46f3-b7de-f72e1c6d0934"/>
-    <ds:schemaRef ds:uri="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4811,9 +4807,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86D3F574-1D4C-41FF-8CB3-6F4DD5AF995B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F3D8B3A-6998-4DF6-A0B6-219B9EFDF5AB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b2208f11-ae8c-46f3-b7de-f72e1c6d0934"/>
+    <ds:schemaRef ds:uri="f4f5ba83-536b-4bb3-a2e0-84bf902bc80d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>